--- a/xlsx/梅格·惠特曼_intext.xlsx
+++ b/xlsx/梅格·惠特曼_intext.xlsx
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0%E7%A7%91%E6%8A%80%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>創新科技博物館</t>
+    <t>创新科技博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6_(%E7%B4%90%E7%B4%84)</t>
   </si>
   <si>
-    <t>長島 (紐約)</t>
+    <t>长岛 (纽约)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%9F%E9%A1%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E6%99%AE%E5%85%AC%E5%8F%B8</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E5%AE%97</t>
   </si>
   <si>
-    <t>長老宗</t>
+    <t>长老宗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Griffith_R._Harsh</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E8%A1%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>執行長</t>
+    <t>执行长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BF%E8%B4%9D</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%85%A7%E6%96%AF%E6%89%98%C2%B7%E6%9F%B4%E8%BF%AA%E6%B4%9B</t>
   </si>
   <si>
-    <t>埃內斯托·柴迪洛</t>
+    <t>埃内斯托·柴迪洛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%A7%E6%B5%AA_(%E5%93%81%E7%89%8C)</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E8%98%AD%E6%B2%B9</t>
   </si>
   <si>
-    <t>玉蘭油</t>
+    <t>玉兰油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%A8%82B</t>
   </si>
   <si>
-    <t>歐樂B</t>
+    <t>欧乐B</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%AB%E5%AF%B6%E9%81%A9</t>
   </si>
   <si>
-    <t>幫寶適</t>
+    <t>帮宝适</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E5%A9%B7</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
 </sst>
 </file>
